--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fofos\IdeaProjects\OpenCart_Testing\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD8D7A-57CE-477F-9BBA-0FFD3612AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472318A4-51D7-4649-9D16-91B6BA14A631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidRegistrationUsers" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLoginUsers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>E-mail</t>
   </si>
@@ -37,24 +38,40 @@
   </si>
   <si>
     <t>fady123@gmil.com</t>
+  </si>
+  <si>
+    <t>fady@yahoo.com</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>fady</t>
+  </si>
+  <si>
+    <t>emad</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>doe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,6 +83,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold SemiConden"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,18 +158,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -128,6 +187,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC4DAC9"/>
+      <color rgb="FF006C31"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,70 +467,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.77734375" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="1" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="3">
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9C24D2B4-3D0D-4742-8C93-73B53A059CE6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A43FBB19-49A0-4108-9418-C323D3AE0AB2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4219B967-A678-447F-8DA0-03CB20622FAA}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324542CB-2144-4A69-B14B-0EC321D5DF32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>